--- a/자유수강권/미술(재료).xlsx
+++ b/자유수강권/미술(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="99">
   <si>
     <t>주야</t>
   </si>
@@ -70,6 +70,12 @@
     <t>박성준</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
     <t>2반</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
     <t>이주희</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>조슬빈</t>
   </si>
   <si>
@@ -139,6 +142,12 @@
     <t>채수련</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>황준우</t>
+  </si>
+  <si>
     <t>4반</t>
   </si>
   <si>
@@ -196,9 +205,6 @@
     <t>송선민</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>홍연수</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
   </si>
   <si>
     <t>이원희</t>
+  </si>
+  <si>
+    <t>권범수</t>
   </si>
   <si>
     <t>김경철</t>
@@ -670,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,13 +803,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -820,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -846,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -872,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -898,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -924,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -950,13 +959,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -976,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1002,13 +1011,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -1028,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -1054,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -1080,10 +1089,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
@@ -1106,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1132,13 +1141,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1158,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1184,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>47</v>
@@ -1210,13 +1219,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1236,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>50</v>
@@ -1262,13 +1271,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1288,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1314,13 +1323,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1340,10 +1349,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>57</v>
@@ -1366,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
@@ -1392,13 +1401,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1415,16 +1424,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1441,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1467,16 +1476,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1493,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1519,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>68</v>
@@ -1545,13 +1554,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>69</v>
@@ -1571,16 +1580,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1597,16 +1606,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -1623,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>73</v>
@@ -1649,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1675,16 +1684,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1701,16 +1710,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1727,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -1753,16 +1762,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
@@ -1779,16 +1788,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
@@ -1805,16 +1814,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -1831,16 +1840,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -1857,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>87</v>
@@ -1883,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>88</v>
@@ -1909,13 +1918,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>89</v>
@@ -1935,16 +1944,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
@@ -1961,16 +1970,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
@@ -1987,16 +1996,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
@@ -2013,24 +2022,102 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.5">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.5">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.5">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
